--- a/src/data/dataPesananDariMeja.xlsx
+++ b/src/data/dataPesananDariMeja.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\NetBeansProjects\Coba_Dashboard_POI\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\NetBeansProjects\FoodCourt\src\backupData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" firstSheet="12" activeTab="12"/>
+    <workbookView activeTab="12" firstSheet="8" windowHeight="9435" windowWidth="24000" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Oto Bento" sheetId="6" r:id="rId1"/>
-    <sheet name="Ootoya" sheetId="1" r:id="rId2"/>
-    <sheet name="Arasseo" sheetId="3" r:id="rId3"/>
-    <sheet name="Kyochon" sheetId="4" r:id="rId4"/>
-    <sheet name="Han Gang" sheetId="5" r:id="rId5"/>
-    <sheet name="PHD" sheetId="2" r:id="rId6"/>
-    <sheet name="Delicio" sheetId="7" r:id="rId7"/>
-    <sheet name="Bodega" sheetId="8" r:id="rId8"/>
-    <sheet name="Aciap" sheetId="9" r:id="rId9"/>
-    <sheet name="Kacamata" sheetId="10" r:id="rId10"/>
-    <sheet name="Mangkok Putih" sheetId="11" r:id="rId11"/>
-    <sheet name="Ayam Bakar Ganthari" sheetId="12" r:id="rId12"/>
-    <sheet name="Ayam Betutu Ibu Putu" sheetId="13" r:id="rId13"/>
+    <sheet name="Oto Bento" r:id="rId1" sheetId="6"/>
+    <sheet name="Ootoya" r:id="rId2" sheetId="1"/>
+    <sheet name="Arasseo" r:id="rId3" sheetId="3"/>
+    <sheet name="Kyochon" r:id="rId4" sheetId="4"/>
+    <sheet name="Han Gang" r:id="rId5" sheetId="5"/>
+    <sheet name="PHD" r:id="rId6" sheetId="2"/>
+    <sheet name="Delicio" r:id="rId7" sheetId="7"/>
+    <sheet name="Bodega" r:id="rId8" sheetId="8"/>
+    <sheet name="Aciap" r:id="rId9" sheetId="9"/>
+    <sheet name="Kacamata" r:id="rId10" sheetId="10"/>
+    <sheet name="Mangkok Putih" r:id="rId11" sheetId="11"/>
+    <sheet name="Ayam Bakar Ganthari" r:id="rId12" sheetId="12"/>
+    <sheet name="Ayam Betutu Ibu Putu" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -937,6 +937,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1006,32 +1007,32 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1048,10 +1049,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1086,7 +1087,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1121,7 +1122,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1215,21 +1216,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1246,7 +1247,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1298,15 +1299,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
@@ -1727,13 +1728,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1741,7 +1742,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1905,7 +1906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2153,149 +2154,149 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="51" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="52" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="53" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="54" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="55" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="56" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="57" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="58" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="59" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="60" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="61" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="62" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="63" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="64" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="65" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="66" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="67" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="68" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="69" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="70" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="71" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:B104"/>
@@ -2303,7 +2304,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2636,7 +2637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2715,248 +2716,248 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="51" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="52" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="53" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="54" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="55" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="56" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="57" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="58" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="59" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="60" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="61" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="62" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="63" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="64" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="65" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="66" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="67" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="68" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="69" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="70" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="71" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
     </row>
-    <row r="72" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="72" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="73" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="74" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="75" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="76" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="77" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="78" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="79" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="80" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="81" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
     </row>
-    <row r="82" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="82" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
     </row>
-    <row r="83" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="83" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
     </row>
-    <row r="84" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="84" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
     </row>
-    <row r="85" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="85" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="86" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="87" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="88" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
     </row>
-    <row r="89" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="89" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
     </row>
-    <row r="90" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="90" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="91" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="92" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
     </row>
-    <row r="93" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="93" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
     </row>
-    <row r="94" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="94" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
     </row>
-    <row r="95" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="95" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="96" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="97" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="98" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="99" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
     </row>
-    <row r="100" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="100" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="101" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="102" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="103" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="104" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
@@ -3377,13 +3378,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -3585,109 +3586,109 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -3695,133 +3696,40 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>294</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>296</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>297</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>298</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.85546875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,17 +4145,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4665,13 +4573,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -5092,13 +5000,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -5106,8 +5014,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5523,13 +5431,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -5537,9 +5445,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5947,13 +5855,13 @@
       <c r="B40" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -6374,13 +6282,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:G26"/>
@@ -6674,24 +6582,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -6708,7 +6616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6725,7 +6633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6742,7 +6650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6759,7 +6667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6773,7 +6681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -6787,7 +6695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -6804,7 +6712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -6821,7 +6729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -6838,7 +6746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="43.5" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -6855,7 +6763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -6869,7 +6777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -6883,7 +6791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6900,7 +6808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -6914,7 +6822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -6931,7 +6839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6945,7 +6853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -6959,7 +6867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -6976,7 +6884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="57.75" r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -6993,7 +6901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -7010,7 +6918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -7024,7 +6932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="43.5" r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -7041,7 +6949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -7055,7 +6963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -7072,7 +6980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -7086,7 +6994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -7103,79 +7011,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/data/dataPesananDariMeja.xlsx
+++ b/src/data/dataPesananDariMeja.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\NetBeansProjects\Coba_Dashboard_POI\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regawa\Documents\NetBeansProjects\PROYEK1\proyek_kel2\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" firstSheet="12" activeTab="12"/>
+    <workbookView windowHeight="9435" windowWidth="24000" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Oto Bento" sheetId="6" r:id="rId1"/>
-    <sheet name="Ootoya" sheetId="1" r:id="rId2"/>
-    <sheet name="Arasseo" sheetId="3" r:id="rId3"/>
-    <sheet name="Kyochon" sheetId="4" r:id="rId4"/>
-    <sheet name="Han Gang" sheetId="5" r:id="rId5"/>
-    <sheet name="PHD" sheetId="2" r:id="rId6"/>
-    <sheet name="Delicio" sheetId="7" r:id="rId7"/>
-    <sheet name="Bodega" sheetId="8" r:id="rId8"/>
-    <sheet name="Aciap" sheetId="9" r:id="rId9"/>
-    <sheet name="Kacamata" sheetId="10" r:id="rId10"/>
-    <sheet name="Mangkok Putih" sheetId="11" r:id="rId11"/>
-    <sheet name="Ayam Bakar Ganthari" sheetId="12" r:id="rId12"/>
-    <sheet name="Ayam Betutu Ibu Putu" sheetId="13" r:id="rId13"/>
+    <sheet name="Oto Bento" r:id="rId1" sheetId="6"/>
+    <sheet name="Ootoya" r:id="rId2" sheetId="1"/>
+    <sheet name="Arasseo" r:id="rId3" sheetId="3"/>
+    <sheet name="Kyochon" r:id="rId4" sheetId="4"/>
+    <sheet name="Han Gang" r:id="rId5" sheetId="5"/>
+    <sheet name="PHD" r:id="rId6" sheetId="2"/>
+    <sheet name="Delicio" r:id="rId7" sheetId="7"/>
+    <sheet name="Bodega" r:id="rId8" sheetId="8"/>
+    <sheet name="Aciap" r:id="rId9" sheetId="9"/>
+    <sheet name="Kacamata" r:id="rId10" sheetId="10"/>
+    <sheet name="Mangkok Putih" r:id="rId11" sheetId="11"/>
+    <sheet name="Ayam Bakar Ganthari" r:id="rId12" sheetId="12"/>
+    <sheet name="Ayam Betutu Ibu Putu" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="304">
   <si>
     <t>Quantity</t>
   </si>
@@ -931,12 +931,25 @@
   </si>
   <si>
     <t>Cireng Sambal Rujak</t>
+  </si>
+  <si>
+    <t>Table 6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>masukkan catatan disini</t>
+  </si>
+  <si>
+    <t>Masukkan catatan disini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1006,32 +1019,32 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1048,10 +1061,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1086,7 +1099,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1121,7 +1134,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1215,21 +1228,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1246,7 +1259,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1298,18 +1311,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="A27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,14 +1739,65 @@
         <v>10</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1741,7 +1805,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,7 +1822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1775,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1809,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1823,7 +1887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1837,7 +1901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1854,7 +1918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1871,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1888,7 +1952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1905,7 +1969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1919,7 +1983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1933,7 +1997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1950,7 +2014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1964,7 +2028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1981,7 +2045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1995,7 +2059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2026,7 +2090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2060,7 +2124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2074,7 +2138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2091,7 +2155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2105,7 +2169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2122,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2136,7 +2200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2153,149 +2217,149 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="51" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="52" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="53" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="54" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="55" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="56" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="57" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="58" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="59" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="60" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="61" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="62" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="63" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="64" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="65" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="66" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="67" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="68" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="69" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="70" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="71" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:B104"/>
@@ -2303,7 +2367,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2320,7 +2384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2337,7 +2401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2354,7 +2418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2371,7 +2435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2385,7 +2449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2399,7 +2463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2416,7 +2480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2433,7 +2497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2450,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2467,7 +2531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2481,7 +2545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2495,7 +2559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2512,7 +2576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2543,7 +2607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2557,7 +2621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2571,7 +2635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2588,7 +2652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2605,7 +2669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2622,7 +2686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2636,7 +2700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2653,7 +2717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2667,7 +2731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2684,7 +2748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2698,7 +2762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2715,248 +2779,248 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="51" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="52" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="53" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="54" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="55" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="56" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="57" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="58" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="59" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="60" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="61" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="62" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="63" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="64" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="65" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="66" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="67" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="68" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="69" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="70" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="71" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
     </row>
-    <row r="72" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="72" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="73" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="74" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="75" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="76" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="77" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="78" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
     </row>
-    <row r="79" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="79" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="80" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="81" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
     </row>
-    <row r="82" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="82" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
     </row>
-    <row r="83" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="83" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
     </row>
-    <row r="84" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="84" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
     </row>
-    <row r="85" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="85" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="86" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
     </row>
-    <row r="87" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="87" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
     </row>
-    <row r="88" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="88" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
     </row>
-    <row r="89" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="89" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
     </row>
-    <row r="90" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="90" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
     </row>
-    <row r="91" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="91" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
     </row>
-    <row r="92" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="92" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
     </row>
-    <row r="93" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="93" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
     </row>
-    <row r="94" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="94" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
     </row>
-    <row r="95" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="95" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="96" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="97" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="98" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="99" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
     </row>
-    <row r="100" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="100" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="101" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="102" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="103" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="104" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
@@ -3377,15 +3441,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -3804,24 +3868,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,14 +4301,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:B26"/>
@@ -4665,13 +4729,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -5092,13 +5156,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -5106,8 +5170,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5523,13 +5587,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -5537,9 +5601,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5947,13 +6011,13 @@
       <c r="B40" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -6374,13 +6438,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:G26"/>
@@ -6674,24 +6738,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -6708,7 +6772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6725,7 +6789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6742,7 +6806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6759,7 +6823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6773,7 +6837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -6787,7 +6851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -6804,7 +6868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -6821,7 +6885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -6838,7 +6902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="43.5" r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -6855,7 +6919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -6869,7 +6933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -6883,7 +6947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -6900,7 +6964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -6914,7 +6978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -6931,7 +6995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -6945,7 +7009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -6959,7 +7023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -6976,7 +7040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="57.75" r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -6993,7 +7057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -7010,7 +7074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -7024,7 +7088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="43.5" r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -7041,7 +7105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -7055,7 +7119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -7072,7 +7136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -7086,7 +7150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="29.25" r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -7103,79 +7167,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="33" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="34" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="35" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="36" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="37" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="38" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="39" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="40" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="41" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="42" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="43" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="44" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="45" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="46" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="47" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="48" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="49" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="50" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/data/dataPesananDariMeja.xlsx
+++ b/src/data/dataPesananDariMeja.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="304">
   <si>
     <t>Quantity</t>
   </si>
@@ -3010,8 +3010,18 @@
     <row ht="15.75" r="103" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
     </row>
-    <row ht="15.75" r="104" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="5"/>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6017,7 +6027,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -6420,22 +6430,198 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>303</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>303</v>
+      </c>
+      <c r="E32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>303</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>303</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>303</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>303</v>
+      </c>
+      <c r="E37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>303</v>
+      </c>
+      <c r="E38"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6444,7 +6630,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:G26"/>
@@ -6720,21 +6906,123 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/dataPesananDariMeja.xlsx
+++ b/src/data/dataPesananDariMeja.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="304">
   <si>
     <t>Quantity</t>
   </si>
@@ -3010,18 +3010,8 @@
     <row ht="15.75" r="103" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
     </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104" t="s">
-        <v>235</v>
-      </c>
-      <c r="C104" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D104"/>
-      <c r="E104"/>
+    <row ht="15.75" r="104" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6027,7 +6017,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -6430,198 +6420,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>303</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>303</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>303</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>303</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>303</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>303</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>303</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>303</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>303</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>303</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>303</v>
-      </c>
-      <c r="E38"/>
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6630,7 +6444,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:G26"/>
@@ -6906,123 +6720,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>302</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>302</v>
-      </c>
-      <c r="E20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>302</v>
-      </c>
-      <c r="E22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>303</v>
-      </c>
-      <c r="E23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>303</v>
-      </c>
-      <c r="E24" t="s">
-        <v>303</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/dataPesananDariMeja.xlsx
+++ b/src/data/dataPesananDariMeja.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="309">
   <si>
     <t>Quantity</t>
   </si>
@@ -943,6 +943,21 @@
   </si>
   <si>
     <t>Masukkan catatan disini</t>
+  </si>
+  <si>
+    <t>Table 12</t>
+  </si>
+  <si>
+    <t>Table 10</t>
+  </si>
+  <si>
+    <t>Table 8</t>
+  </si>
+  <si>
+    <t>Table 9</t>
+  </si>
+  <si>
+    <t>Table 7</t>
   </si>
 </sst>
 </file>
@@ -1775,10 +1790,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>

--- a/src/data/dataPesananDariMeja.xlsx
+++ b/src/data/dataPesananDariMeja.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="318">
   <si>
     <t>Quantity</t>
   </si>
@@ -958,6 +958,33 @@
   </si>
   <si>
     <t>Table 7</t>
+  </si>
+  <si>
+    <t>Table 666</t>
+  </si>
+  <si>
+    <t>Table l</t>
+  </si>
+  <si>
+    <t>Table null</t>
+  </si>
+  <si>
+    <t>Beef Teriyaki Noodles</t>
+  </si>
+  <si>
+    <t>Beef Teriyaki</t>
+  </si>
+  <si>
+    <t>Beef Katsu</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Table </t>
+  </si>
+  <si>
+    <t>Table 0</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F27" sqref="A27:F27"/>
@@ -1790,7 +1817,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -1802,6 +1829,91 @@
         <v>302</v>
       </c>
       <c r="E29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>311</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>303</v>
+      </c>
+      <c r="E31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>303</v>
+      </c>
+      <c r="E34" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2364,8 +2476,22 @@
     <row ht="15.75" r="70" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
     </row>
-    <row ht="15.75" r="71" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="5"/>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>311</v>
+      </c>
+      <c r="B71" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" t="s">
+        <v>303</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2374,7 +2500,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:B104"/>
@@ -3025,8 +3151,56 @@
     <row ht="15.75" r="103" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
     </row>
-    <row ht="15.75" r="104" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="5"/>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>312</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>302</v>
+      </c>
+      <c r="E104" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>303</v>
+      </c>
+      <c r="E105" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>303</v>
+      </c>
+      <c r="E106" t="s">
+        <v>303</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3438,21 +3612,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
+        <v>257</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.0</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3889,7 +4063,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="B20" sqref="B20"/>
@@ -4298,21 +4472,89 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.0</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>316</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4323,7 +4565,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:B26"/>
@@ -4726,21 +4968,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
+        <v>311</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -4750,7 +5009,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -5153,21 +5412,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
+        <v>311</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.0</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5177,7 +5453,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -5584,21 +5860,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
+        <v>311</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5608,7 +5901,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -6022,8 +6315,141 @@
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>310</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>303</v>
+      </c>
+      <c r="E41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>303</v>
+      </c>
+      <c r="E42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>302</v>
+      </c>
+      <c r="E43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E44" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>303</v>
+      </c>
+      <c r="E45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>316</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>302</v>
+      </c>
+      <c r="E46" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>316</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>303</v>
+      </c>
+      <c r="E47" t="s">
+        <v>303</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6032,7 +6458,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -6435,21 +6861,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
+        <v>311</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -6459,7 +6936,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:G26"/>
@@ -6735,21 +7212,191 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.0</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -6759,7 +7406,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="D32" sqref="D32"/>
@@ -7251,8 +7898,107 @@
     <row ht="15.75" r="49" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3"/>
     </row>
-    <row ht="15.75" r="50" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="3"/>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>302</v>
+      </c>
+      <c r="E50" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>303</v>
+      </c>
+      <c r="E52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>303</v>
+      </c>
+      <c r="E53" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>303</v>
+      </c>
+      <c r="E54" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>303</v>
+      </c>
+      <c r="E55" t="s">
+        <v>303</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/data/dataPesananDariMeja.xlsx
+++ b/src/data/dataPesananDariMeja.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="318">
   <si>
     <t>Quantity</t>
   </si>
@@ -4565,7 +4565,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:B26"/>
@@ -4987,18 +4987,35 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>311</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27" t="s">
         <v>302</v>
       </c>
       <c r="E27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5901,7 +5918,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -6436,18 +6453,35 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C47" t="n">
         <v>1.0</v>
       </c>
       <c r="D47" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" t="s">
         <v>303</v>
       </c>
-      <c r="E47" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>311</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>303</v>
+      </c>
+      <c r="E48" t="s">
         <v>303</v>
       </c>
     </row>

--- a/src/data/dataPesananDariMeja.xlsx
+++ b/src/data/dataPesananDariMeja.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="320">
   <si>
     <t>Quantity</t>
   </si>
@@ -958,6 +958,39 @@
   </si>
   <si>
     <t>Table 7</t>
+  </si>
+  <si>
+    <t>Table null</t>
+  </si>
+  <si>
+    <t>Table 11</t>
+  </si>
+  <si>
+    <t>tambah keju</t>
+  </si>
+  <si>
+    <t>Aqua 330 mL</t>
+  </si>
+  <si>
+    <t>Table 14</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Green Tea</t>
+  </si>
+  <si>
+    <t>Air Mineral Botol</t>
+  </si>
+  <si>
+    <t>Cincau</t>
+  </si>
+  <si>
+    <t>Bakmi Hongkong Siobak</t>
+  </si>
+  <si>
+    <t>Susu Kacang</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -1812,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2170,202 +2203,134 @@
         <v>10</v>
       </c>
     </row>
-    <row ht="15.75" r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row ht="15.75" r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row ht="15.75" r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row ht="15.75" r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row ht="15.75" r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
     </row>
-    <row ht="15.75" r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
     </row>
-    <row ht="15.75" r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
     </row>
-    <row ht="15.75" r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
     </row>
-    <row ht="15.75" r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
     </row>
-    <row ht="15.75" r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
     </row>
-    <row ht="15.75" r="33" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5"/>
     </row>
-    <row ht="15.75" r="34" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
     </row>
-    <row ht="15.75" r="35" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
     </row>
-    <row ht="15.75" r="36" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-    </row>
-    <row ht="15.75" r="37" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
     </row>
-    <row ht="15.75" r="38" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
     </row>
-    <row ht="15.75" r="39" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
     </row>
-    <row ht="15.75" r="40" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="6"/>
-    </row>
-    <row ht="15.75" r="41" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
     </row>
-    <row ht="15.75" r="42" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
     </row>
-    <row ht="15.75" r="43" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
     </row>
-    <row ht="15.75" r="44" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
     </row>
-    <row ht="15.75" r="45" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
     </row>
-    <row ht="15.75" r="46" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
     </row>
-    <row ht="15.75" r="47" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
     </row>
-    <row ht="15.75" r="48" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
     </row>
-    <row ht="15.75" r="49" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
     </row>
-    <row ht="15.75" r="50" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
     </row>
-    <row ht="15.75" r="51" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
     </row>
-    <row ht="15.75" r="52" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
     </row>
-    <row ht="15.75" r="53" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
     </row>
-    <row ht="15.75" r="54" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
     </row>
-    <row ht="15.75" r="55" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
     </row>
-    <row ht="15.75" r="56" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
     </row>
-    <row ht="15.75" r="57" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
     </row>
-    <row ht="15.75" r="58" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
     </row>
-    <row ht="15.75" r="59" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
     </row>
-    <row ht="15.75" r="60" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
     </row>
-    <row ht="15.75" r="61" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
     </row>
-    <row ht="15.75" r="62" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
     </row>
-    <row ht="15.75" r="63" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
     </row>
-    <row ht="15.75" r="64" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="5"/>
     </row>
-    <row ht="15.75" r="65" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
-    </row>
-    <row ht="15.75" r="66" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="5"/>
-    </row>
-    <row ht="15.75" r="67" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="5"/>
-    </row>
-    <row ht="15.75" r="68" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="5"/>
-    </row>
-    <row ht="15.75" r="69" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="5"/>
-    </row>
-    <row ht="15.75" r="70" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="5"/>
-    </row>
-    <row ht="15.75" r="71" spans="2:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3438,21 +3403,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
+        <v>260</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5608,7 +5573,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -6022,8 +5987,90 @@
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>310</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>302</v>
+      </c>
+      <c r="E42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>311</v>
+      </c>
+      <c r="E43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B44" t="s">
+        <v>312</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>303</v>
+      </c>
+      <c r="E44" t="s">
+        <v>303</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/data/dataPesananDariMeja.xlsx
+++ b/src/data/dataPesananDariMeja.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="321">
   <si>
     <t>Quantity</t>
   </si>
@@ -991,6 +991,9 @@
   </si>
   <si>
     <t>Susu Kacang</t>
+  </si>
+  <si>
+    <t>Fresh Girl</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1829,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -5573,7 +5576,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -6057,18 +6060,52 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>310</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c r="C44" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E44" t="s">
         <v>303</v>
       </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>302</v>
+      </c>
+      <c r="E45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>303</v>
+      </c>
+      <c r="E46" t="s">
         <v>303</v>
       </c>
     </row>
